--- a/public/template_import.xlsx
+++ b/public/template_import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\dkukm-kab-sukabumi\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E756ADB8-D6D4-4B38-A296-ADD12B5EA267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039C3768-EBAD-4404-9C08-881220CD4178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>Nama UMKM</t>
   </si>
@@ -190,9 +190,6 @@
     <t>Kategori Usaha ("mikro", "makro")</t>
   </si>
   <si>
-    <t>Daerah Pemasaran (dipisahkan oleh tanda "," (koma))</t>
-  </si>
-  <si>
     <t>Kemitraan  (dipisahkan oleh tanda "," (koma))</t>
   </si>
   <si>
@@ -200,6 +197,30 @@
   </si>
   <si>
     <t>Status UMKM ("active", "inactive")</t>
+  </si>
+  <si>
+    <t>Jangkauan Pemasaran (Lokal) ("V", "X")</t>
+  </si>
+  <si>
+    <t>Jangkauan Pemasaran (Lintas Kabupaten/Kota) ("V", "X")</t>
+  </si>
+  <si>
+    <t>Jangkauan Pemasaran (Lintas Provinsi) ("V", "X")</t>
+  </si>
+  <si>
+    <t>Jangkauan Pemasaran (Export) ("V", "X")</t>
+  </si>
+  <si>
+    <t>Jangkauan Pemasaran (Online) ("V", "X")</t>
+  </si>
+  <si>
+    <t>Keterangan Jangkuan Pemasaran (Online)</t>
+  </si>
+  <si>
+    <t>Pembiayaan ("V", "X")</t>
+  </si>
+  <si>
+    <t>Sumber Pembiayaan</t>
   </si>
 </sst>
 </file>
@@ -554,11 +575,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BD1"/>
+  <dimension ref="A1:BK1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="BG5" sqref="BG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,13 +635,16 @@
     <col min="50" max="50" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19.85546875" customWidth="1"/>
-    <col min="54" max="54" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="32" bestFit="1" customWidth="1"/>
+    <col min="53" max="57" width="17.7109375" customWidth="1"/>
+    <col min="58" max="58" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.85546875" customWidth="1"/>
+    <col min="60" max="60" width="19.85546875" customWidth="1"/>
+    <col min="61" max="61" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:63" s="1" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,19 +799,40 @@
         <v>35</v>
       </c>
       <c r="AZ1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="BF1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="BG1" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BI1" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="BB1" s="3" t="s">
+      <c r="BJ1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK1" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="BD1" s="3" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
